--- a/Check.xlsx
+++ b/Check.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F069F22-27E2-4A22-AD8B-C7C670D6A0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D31EDF-1735-4FD8-90DE-0B06C3473B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -76,12 +76,6 @@
     <t>Добавление новой новости с некорректным временем</t>
   </si>
   <si>
-    <t>Добавление новой новости с некорректной датой</t>
-  </si>
-  <si>
-    <t>Позволяет добавить новость с датой из прошлого</t>
-  </si>
-  <si>
     <t>Развернуть цитату для подробного просмотра</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
   </si>
   <si>
     <t>Авторизация корректным логином и корректным паролем с пробелом перед/после пароля</t>
-  </si>
-  <si>
-    <t>Отсутствует единообразие навигации в смежных разделах. Например, на вкладке "Главная" отсутствует кнопка "Добавить" в разделе "Новости", а в разделе "Претензии" она есть.  В свою очередь, в разделе "Претензии" отсутствует кнопка сортировки, которая есть в разделе "Новости".</t>
   </si>
   <si>
     <t>Nexus 10 10.05" (2560×1600);Pixel C 9.94"  (2560×1800)</t>
@@ -795,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,12 +815,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -845,7 +836,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
@@ -897,10 +888,10 @@
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>6</v>
@@ -910,10 +901,10 @@
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>6</v>
@@ -989,47 +980,45 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>30</v>
+      <c r="A17" s="28"/>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>14</v>
@@ -1037,42 +1026,44 @@
       <c r="D17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>14</v>
@@ -1081,40 +1072,27 @@
         <v>10</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="C21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>35</v>
-      </c>
+      <c r="D21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
@@ -1270,7 +1248,6 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
-      <c r="E61" s="16"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
@@ -1287,15 +1264,12 @@
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D31EDF-1735-4FD8-90DE-0B06C3473B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A152F0-C6E5-464F-96AE-C444EECC5776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Средний</t>
   </si>
   <si>
-    <t>Фильтрация новостей</t>
-  </si>
-  <si>
     <t>Редактирование новостей</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>Переход по ссылке /terms-of-use для просмотра условий использования</t>
   </si>
   <si>
-    <t>Навигация между разделами (юзабилити)</t>
-  </si>
-  <si>
-    <t>Оценка удобства навигации и сравнение представленных возможностей в однотипных разделах приложения</t>
-  </si>
-  <si>
     <t>Низкий</t>
   </si>
   <si>
@@ -131,13 +122,124 @@
   </si>
   <si>
     <t>Раздел "Тематические цитаты"</t>
+  </si>
+  <si>
+    <t>Тестирование энергопотребления</t>
+  </si>
+  <si>
+    <t>Тестирование времени отклика</t>
+  </si>
+  <si>
+    <t>Измерение времени, необходимого для ответа приложения на действие.</t>
+  </si>
+  <si>
+    <t>Тестирование UI</t>
+  </si>
+  <si>
+    <t>Оценка удобства интерфейса, в том числе навигации, компоновки элементов и общего дизайна</t>
+  </si>
+  <si>
+    <t>Тестирование доступности</t>
+  </si>
+  <si>
+    <t>Проверка доступности приложения для пользователей с ограниченными возможностями.</t>
+  </si>
+  <si>
+    <t>Тестирование совместимости</t>
+  </si>
+  <si>
+    <t>Способности приложения восстанавливаться после сбоев или отключений</t>
+  </si>
+  <si>
+    <t>Тестирование безопасности данных</t>
+  </si>
+  <si>
+    <t>Проверка защищенности пользовательских данных в приложении.</t>
+  </si>
+  <si>
+    <t>Тестирование производительности</t>
+  </si>
+  <si>
+    <t>Оценка скорости работы приложения при различных условиях нагрузки</t>
+  </si>
+  <si>
+    <t>Оценка эффективности использования приложением энергии устройства</t>
+  </si>
+  <si>
+    <t>Оценка работы приложения на различных устройствах и разных версиях операционных систем.</t>
+  </si>
+  <si>
+    <t>Тестирование на отказ и восстановление</t>
+  </si>
+  <si>
+    <t>Главная страница</t>
+  </si>
+  <si>
+    <t>Кнопка Свернуть / Развернуть News</t>
+  </si>
+  <si>
+    <t>Кнопка Свернуть / Развернуть новость внутри блока News</t>
+  </si>
+  <si>
+    <t>Кнопка Свернуть / Развернуть новость внутри блока News клик по стрелке</t>
+  </si>
+  <si>
+    <t>Открыть All news</t>
+  </si>
+  <si>
+    <t>Возврат на главную страницу из блока News (side menu-&gt;Main)</t>
+  </si>
+  <si>
+    <t>Клик по баннеру ВХОСПИСЕ</t>
+  </si>
+  <si>
+    <t>Переход в раздел Love is all</t>
+  </si>
+  <si>
+    <t>Logout / cancel</t>
+  </si>
+  <si>
+    <t>Logout / Log out</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категориям</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по дате</t>
+  </si>
+  <si>
+    <t>Изменение активности новости (тумблер Active)</t>
+  </si>
+  <si>
+    <t>Разворачивание и сворачивание новости</t>
+  </si>
+  <si>
+    <t>Удаление новости</t>
+  </si>
+  <si>
+    <t>Добавление новости без выбора даты</t>
+  </si>
+  <si>
+    <t>Создание новости с невалидными данными</t>
+  </si>
+  <si>
+    <t>Создание новости с пустыми полями</t>
+  </si>
+  <si>
+    <t>Создание дубликата новости</t>
+  </si>
+  <si>
+    <t>Открытие экрана с цитатами и проверка отобрaжения цитат</t>
+  </si>
+  <si>
+    <t>Скроллинг цитаты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +262,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +314,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -356,7 +484,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -365,43 +493,24 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -417,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,58 +561,101 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -786,17 +938,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="22" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.5546875" customWidth="1"/>
   </cols>
@@ -815,12 +967,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>35</v>
+      <c r="A2" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -831,12 +983,12 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>5</v>
@@ -844,10 +996,10 @@
       <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -857,10 +1009,10 @@
       <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -870,10 +1022,10 @@
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -883,393 +1035,694 @@
       <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="30"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+      <c r="B40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="D43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+    </row>
+    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="C46" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="E49" s="16"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="E52" s="16"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="E53" s="16"/>
+      <c r="A53" s="12"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="E54" s="16"/>
+      <c r="A54" s="12"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="E55" s="16"/>
+      <c r="A55" s="12"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="E56" s="16"/>
+      <c r="A56" s="12"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="E57" s="16"/>
+      <c r="A57" s="12"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="E58" s="16"/>
+      <c r="A58" s="12"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="E59" s="16"/>
+      <c r="A59" s="12"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="E60" s="16"/>
+      <c r="A60" s="12"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
+      <c r="A61" s="12"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
+      <c r="A62" s="12"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
+      <c r="A63" s="12"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
+      <c r="A64" s="12"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="12"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="12"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="12"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="12"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="12"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="12"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="12"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="12"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="12"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="12"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="12"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="12"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="12"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="12"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="12"/>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="12"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="12"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A20:A32"/>
+    <mergeCell ref="A38:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
